--- a/Tasks/Корреляционно-регрессионный анализ/Кор_Рег_1_2.xlsx
+++ b/Tasks/Корреляционно-регрессионный анализ/Кор_Рег_1_2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SDR\Tasks\Корреляционно-регрессионный анализ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6A9680-FA4F-436C-8F0C-F9678826E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FAA39A-F4FD-4FF4-977D-BBAFC434A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Вариант:</t>
   </si>
@@ -551,12 +553,93 @@
   <si>
     <t>Правая граница доверительного интервала "y"</t>
   </si>
+  <si>
+    <t>Столбец 1</t>
+  </si>
+  <si>
+    <t>Столбец 2</t>
+  </si>
+  <si>
+    <t>ВЫВОД ИТОГОВ</t>
+  </si>
+  <si>
+    <t>Регрессионная статистика</t>
+  </si>
+  <si>
+    <t>Множественный R</t>
+  </si>
+  <si>
+    <t>R-квадрат</t>
+  </si>
+  <si>
+    <t>Нормированный R-квадрат</t>
+  </si>
+  <si>
+    <t>Стандартная ошибка</t>
+  </si>
+  <si>
+    <t>Наблюдения</t>
+  </si>
+  <si>
+    <t>Дисперсионный анализ</t>
+  </si>
+  <si>
+    <t>Регрессия</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Y-пересечение</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Значимость F</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>t-статистика</t>
+  </si>
+  <si>
+    <t>P-Значение</t>
+  </si>
+  <si>
+    <t>Нижние 95%</t>
+  </si>
+  <si>
+    <t>Верхние 95%</t>
+  </si>
+  <si>
+    <t>Нижние 95,0%</t>
+  </si>
+  <si>
+    <t>Верхние 95,0%</t>
+  </si>
+  <si>
+    <t>Переменная X 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +706,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -632,7 +723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -640,11 +731,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,6 +778,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3337,11 +3456,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102CA7BA-A330-4473-97A1-D400768F0775}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="14">
+        <v>-0.86830314797335562</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B29FA57-0F68-49C8-ADCA-65C04D7ECDFC}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.8683031479733555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.75395035678043898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.73502346114816508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="13">
+        <v>11.105298372394003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4912.7405247813404</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4912.7405247813404</v>
+      </c>
+      <c r="E12" s="13">
+        <v>39.834866289155819</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2.6950135827442011E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1603.2594752186594</v>
+      </c>
+      <c r="D13" s="13">
+        <v>123.32765193989688</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14">
+        <v>6516</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="13">
+        <v>134.47521865889212</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5.8904276778506057</v>
+      </c>
+      <c r="D17" s="13">
+        <v>22.829449067773226</v>
+      </c>
+      <c r="E17" s="13">
+        <v>7.110456419971407E-12</v>
+      </c>
+      <c r="F17" s="13">
+        <v>121.74972333050276</v>
+      </c>
+      <c r="G17" s="13">
+        <v>147.20071398728149</v>
+      </c>
+      <c r="H17" s="13">
+        <v>121.74972333050276</v>
+      </c>
+      <c r="I17" s="13">
+        <v>147.20071398728149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="14">
+        <v>-3.4548104956268215</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.54738456664355728</v>
+      </c>
+      <c r="D18" s="14">
+        <v>-6.311486852490134</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2.6950135827441963E-5</v>
+      </c>
+      <c r="F18" s="14">
+        <v>-4.6373629564350312</v>
+      </c>
+      <c r="G18" s="14">
+        <v>-2.2722580348186119</v>
+      </c>
+      <c r="H18" s="14">
+        <v>-4.6373629564350312</v>
+      </c>
+      <c r="I18" s="14">
+        <v>-2.2722580348186119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
